--- a/CairoAttractions.xlsx
+++ b/CairoAttractions.xlsx
@@ -1,40 +1,642 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeina\Desktop\Attractions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A46F66-D2BE-4446-85BB-CC1EDAAD429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="196">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>1. The Museum of Egyptian Antiquities</t>
+  </si>
+  <si>
+    <t>This famous museum houses the world’s largest collection of ancient Egyption artifacts (more than 120,000 items on display) featuring the famous Tutankhamun collection with its beautiful gold death…</t>
+  </si>
+  <si>
+    <t>Speciality Museums</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0f/0b/ae/20/img-20170420-220949-228.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>2. Nile River</t>
+  </si>
+  <si>
+    <t>Stretching for 4,187 miles, the longest river in the world flows from its major source, Lake Victoria in east central Africa, through Uganda, Sudan, Ethiopia and northwards into Egypt to the Mediterranean…</t>
+  </si>
+  <si>
+    <t>Bodies of Water</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/16/45/28/df/river-nile-in-upper-lower.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>3. Khan Al-Khalili</t>
+  </si>
+  <si>
+    <t>This vibrant open-air bazaar is a treasure trove of Egyptian culture, with bustling streets filled with local artisans and vendors. Here, you can pick up unique souvenirs like spices and perfumes, …</t>
+  </si>
+  <si>
+    <t>Flea &amp; Street Markets</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/06/34/c6/07/khan-al-khalili.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>4. Mosque of Muhammad Ali</t>
+  </si>
+  <si>
+    <t>No description available</t>
+  </si>
+  <si>
+    <t>Historic Sites • Religious Sites</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/06/b9/ad/17/sul-punto-piu-elevato.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>5. Coptic Cairo</t>
+  </si>
+  <si>
+    <t>Once known as the Roman stronghold of Babylon, Cairo’s oldest section is the ancient heart of the Coptic Christian community featuring five original churches, the first mosque built in Egypt and the…</t>
+  </si>
+  <si>
+    <t>Neighborhoods • Points of Interest &amp; Landmarks</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/13/b6/b1/91/20180715-180608-largejpg.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>6. Cairo Festival City Mall</t>
+  </si>
+  <si>
+    <t>Shopping Malls</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0b/11/40/9d/20160416-213043-largejpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>7. Cairo Citadel</t>
+  </si>
+  <si>
+    <t>Historic Sites • Architectural Buildings</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/14/5b/57/d6/citadel-al-qalaa.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>8. Al-Azhar Park</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/13/93/04/86/al-azhar-park-di.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>9. City Stars Mall</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/18/0d/82/42/city-stars-mall.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>10. Cave Church</t>
+  </si>
+  <si>
+    <t>Churches &amp; Cathedrals</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/16/72/d9/3a/main-curch.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>11. Zamalek</t>
+  </si>
+  <si>
+    <t>Neighborhoods • Islands</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/06/4b/3f/8c/zamalek-gezira-island.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>12. National Museum Of Egyptian Civilization NEMC</t>
+  </si>
+  <si>
+    <t>History Museums</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0e/7c/46/5e/national-museum-of-egyptian.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>13. Hanging Church (El Muallaqa, Sitt Mariam, St Mary)</t>
+  </si>
+  <si>
+    <t>Architectural Buildings • Religious Sites</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/13/16/0b/aa/hanging-church-el-muallaqa.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>14. Islamic Cairo</t>
+  </si>
+  <si>
+    <t>After the Muslims conquered Egypt in 641 AD, they built their city, Al-Fustat, on what is now the southern border of modern Cairo. Today, this section of the city contains many important sites including…</t>
+  </si>
+  <si>
+    <t>Neighborhoods</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/06/87/38/11/islamic-cairo.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>15. Cairo Tower</t>
+  </si>
+  <si>
+    <t>Observation Decks &amp; Towers</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/11/43/3d/04/wikimedia-2016-34-largejpg.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>16. Al-Azhar Mosque</t>
+  </si>
+  <si>
+    <t>Religious Sites</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/15/8c/25/4b/view-from-court-yard.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>17. Mosque and Madrasa of Sultan Hassan</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/12/09/4d/7d/caption.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>18. Gayer-Anderson Museum (Bayt al-Kiritliya)</t>
+  </si>
+  <si>
+    <t>This museum features the items of antiquity collected by John Gayer-Anderson, a British member of the Egyptian civil service in the 1930s and ‘40s, who restored two adjacent 16th- and 17th-century…</t>
+  </si>
+  <si>
+    <t>Art Museums</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0f/27/f1/65/photo0jpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>19. Sharia Al Mu'izz Li-Din Allah</t>
+  </si>
+  <si>
+    <t>Points of Interest &amp; Landmarks</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/18/32/b1/04/sharia-al-mu-izz-li-din.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>20. Heliopolis</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/10/52/cd/55/89886102-largejpg.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>21. The Coptic Museum</t>
+  </si>
+  <si>
+    <t>Housing some of the finest collections of Coptic art dating back to Egypt’s Christian era, this museum includes collections of ancient ankhs and Horus-like falcons, stone carvings from the era of …</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/16/4b/61/f1/caption.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>22. Mosque of Ibn Tulun</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/14/2e/71/0d/mosque-of-ibn-tulun.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>23. Manial Palace Museum</t>
+  </si>
+  <si>
+    <t>Built by Prince Mohamed Ali (1875-1955), between 1901 and 1929, this palace complex houses six structures including a hunting museum belonging to the late King Farouk, the prince’s residence and furnishings…</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/11/40/0d/c6/photo0jpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>24. Church of St. Sergius and Bacchus</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/12/4f/82/94/detalle.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>25. Abdeen Palace Museum</t>
+  </si>
+  <si>
+    <t>Formerly serving as a royal palace until the end of the monarchy in 1952, this history museum features a large collection of weapons and medals including knives, guns, cannons and an exhibit of medals…</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/01/11/4c/d9/the-garden-outside-the.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>26. Museum of Islamic Arts</t>
+  </si>
+  <si>
+    <t>Art Museums • History Museums</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/11/d5/d1/60/an-outdoor-setting-at.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>27. Cairo Opera House</t>
+  </si>
+  <si>
+    <t>This cultural venue, The National Cultural Centre "Cairo Opera House" is part of the Ministry of Culture and serves as an umbrella organization for all the music or dance companies, galleries, museums…</t>
+  </si>
+  <si>
+    <t>Theaters</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0a/95/77/27/cairo-opera-house.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>28. Baron Palace</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0b/6f/69/3f/img-20160529-wa0011-largejpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>29. Coptic Orthodox Church of St. George (Mari Girgis)</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0b/d8/1b/8c/photo0jpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>30. Wekalet El Ghouri Arts Center</t>
+  </si>
+  <si>
+    <t>Convention Centers</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0a/f0/12/16/wekalet-el-ghouri-arts.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>31. Al Rifai Mosque</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/11/1b/f9/20/photo6jpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>32. Mamluk Jewellery and Bazaar</t>
+  </si>
+  <si>
+    <t>An Egyptian antique and jewellery shop that contains wide range of localy hand made Egyptian products that ranges from high replicas of Ancient Egyptian satues to gold, diamond and silver jewelleries…</t>
+  </si>
+  <si>
+    <t>Speciality &amp; Gift Shops • Antique Shops</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1a/75/74/92/logo.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>33. Midan Hussein</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/09/a1/ff/1f/midan-hussein.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>34. City of the Dead (Northern Cemetery)</t>
+  </si>
+  <si>
+    <t>Cemeteries</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0a/06/38/c3/city-of-the-dead-northern.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>35. Synagogue Ben Ezra</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/06/79/4b/3c/ben-ezra-synagogue.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>36. Mosque of Amr Ibn Al-As</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0a/44/39/0f/overall-view.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>37. Nilometer</t>
+  </si>
+  <si>
+    <t>Dams</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/16/0e/38/57/photo3jpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>38. Iridium Spa</t>
+  </si>
+  <si>
+    <t>Iridium Spa represents one of the essences of The St. Regis brand. It is a sanctuary for the extraordinary and one of a kind when it comes to bespoke services and living exquisitely. It brings creativity…</t>
+  </si>
+  <si>
+    <t>Health Clubs • Spas</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1c/a4/90/d2/once-you-step-into-the.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>39. Pyramids Camel Ride</t>
+  </si>
+  <si>
+    <t>Safaris • Horseback Riding Tours</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/17/90/46/bb/pyramids-camel-ride.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>40. Le Quell Elite</t>
+  </si>
+  <si>
+    <t>Signature services. Serene settings. Refined relaxation! At our exclusive spa, clients at Le Quell Elite can experience an array of revitalizing treatments in surroundings that indulge mind, body …</t>
+  </si>
+  <si>
+    <t>Spas</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/19/d9/2f/a0/getlstd-property-photo.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>41. Jazz Bar</t>
+  </si>
+  <si>
+    <t>Bars &amp; Clubs</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/15/5b/d2/26/jazz-bar-3.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>42. Kempinski The Spa</t>
+  </si>
+  <si>
+    <t>Kempinski The Spa is a place to unwind and relax whilst staying in the heart of the city, combining Egyptian and European elegance, is an oasis of well-being and serenity for the mind, body and soul…</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/15/5c/e9/1f/kempinski-the-spa-bed.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>43. Resense Spa</t>
+  </si>
+  <si>
+    <t>The Resense Spa offers a wide variety of relaxing treatments. Our Massage Experiences have been distinctly curated in order to ensure you are completely soothed, while our Body Experiences are deeply…</t>
+  </si>
+  <si>
+    <t>Health Clubs • Arab Baths</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0e/ae/27/90/resense-wet-facilities.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>44. Trapped Egypt</t>
+  </si>
+  <si>
+    <t>After roaring success, we’re bringing the UK’s highest rated escape rooms to Cairo. Check them out on TripAdvisor; you might find something to help you survive. Clue HQ - The Live Escape Game Gather…</t>
+  </si>
+  <si>
+    <t>Escape Games • Game &amp; Entertainment Centers</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/12/f9/84/64/trapped-egypt-is-the.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>45. Escape The Room</t>
+  </si>
+  <si>
+    <t>Fun, new entertainment concept and is the first of its kind in the Middle East. Each Escape Room is a real life adventure game designed for small groups. Whether you’re a group of friends, family …</t>
+  </si>
+  <si>
+    <t>Escape Games</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/27/6d/a4/3a/escapetheroom.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>46. Mandara Spa At JW Marriott Cairo</t>
+  </si>
+  <si>
+    <t>The magnificent Mandara Spa has become a destination in itself and continues to add new dimensions of luxury to the JW Marriott Hotel With a focus on pampering and restoration, the spa is a peaceful…</t>
+  </si>
+  <si>
+    <t>Hammams &amp; Turkish Baths • Spas</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1d/8f/2e/52/mandara-spa-relaxation.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>47. Fairmont Spa, Fairmont Nile City</t>
+  </si>
+  <si>
+    <t>Welcome to Fairmont Spa at Fairmont Nile City, a haven of tranquility in the heart of the bustling capital. A relaxing sanctuary drawing inspiration from its surrounding natural environment. Sandy…</t>
+  </si>
+  <si>
+    <t>Health Clubs • Hammams &amp; Turkish Baths</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0a/8a/bf/35/willow-stream-spa.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>48. The St. Regis Bar &amp; Water Garden</t>
+  </si>
+  <si>
+    <t>Paying homage to the world’s renowned King Cole Bar, this elegant bar is a favorite meeting point for both business and leisure while the Water Garden is a stunning floral masterpiece backdrop, offering…</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1c/b7/67/9f/the-st-regis-bar.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>49. Egypt Tours Portal</t>
+  </si>
+  <si>
+    <t>Egypt Tours Portal offers a variety of Egypt tours &amp; vacation packages, Egypt Nile cruises, Egypt day tours &amp; excursions, and Egypt shore excursions to all our clients from all over the world that…</t>
+  </si>
+  <si>
+    <t>Multi-day Tours • Private Tours</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/29/11/87/41/egypt-tours-portal-logo.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>50. Memphis Tours</t>
+  </si>
+  <si>
+    <t>We offer a wide variety of Egypt excursions to many cities and places from any location in Egypt with a choice of taking Egypt private tour also we offer you packages (private or group). With us you…</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1b/4f/ad/7e/caption.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>51. Al-Tannoura Egyptian Heritage Dance Troupe</t>
+  </si>
+  <si>
+    <t>Theater &amp; Performances</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/04/39/2a/76/al-tannoura-egyptian.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>52. Royal Perfumes And Oils</t>
+  </si>
+  <si>
+    <t>Royal is an Egyptian brand for good natural oils for skin and body as well as Egyptian fragrances and perfumes. All our perfumes does not include alcohol and is pure essence. We are based in Cairo…</t>
+  </si>
+  <si>
+    <t>Speciality &amp; Gift Shops</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1d/da/41/3e/logo.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>53. Emo Tours Egypt</t>
+  </si>
+  <si>
+    <t>Discover the timeless wonders of Egypt with Emo Tours Egypt, your trusted partner in creating unforgettable travel experiences. With a passion for delivering exceptional service, Emo Tours offers …</t>
+  </si>
+  <si>
+    <t>City Tours • Multi-day Tours</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1c/ca/48/6f/emo-tours-egypt.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>54. Let's Explore Egypt</t>
+  </si>
+  <si>
+    <t>Let's explore Egypt is tour company in Cairo , helping many people for touring Egypt by best service for traveling , we always promise our tourist by perfect holiday in Cairo. we have great team from…</t>
+  </si>
+  <si>
+    <t>Multi-day Tours • Historical &amp; Heritage Tours</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/1b/f2/0f/e4/12.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>55. Fair Trade Egypt</t>
+  </si>
+  <si>
+    <t>Welcome to Fair Trade Egypt! Fair Trade Egypt is a social enterprise, established in 1998 to provide marketing and development services to disadvantaged producers. Through those services, Fair Trade…</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/28/21/e0/02/explore-our-pottery-collection.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>56. Rimo Tours</t>
+  </si>
+  <si>
+    <t>We are a leading travel &amp; transport company that works in the Egyptian market. Our branches are available in most of the touristic cities and five stars hotels around Egypt. We also have branches …</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/2b/dd/32/49/caption.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>57. Happy Horse Holidays</t>
+  </si>
+  <si>
+    <t>Happy Horse Holidays provides horse riding activities in the area around the Giza, Abu Sir and Sakkara pyramids west of the city of Cairo. We use our own well trained horses, all tours are escorted…</t>
+  </si>
+  <si>
+    <t>Horseback Riding Tours</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0a/8f/0c/91/photo2jpg.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>58. Sahara Travel</t>
+  </si>
+  <si>
+    <t>we are providing our clients with unique experience with special service through knowledgeable guides , very professional tour leaders and terrific drivers with very modern cars with air conditioner…</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/2b/f2/7f/1d/caption.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>59. Egypt Tailor Made Day Tours</t>
+  </si>
+  <si>
+    <t>owned and operated by Walid Fathy who has experience for over 25 years as an Egyptologist guide and tour operator specialist in Tailor made tours all over Egypt and Jordan in all languages . Whether…</t>
+  </si>
+  <si>
+    <t>City Tours • Cultural Tours</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/18/10/be/a5/a-lovely-couple-proposal.jpg?w=500&amp;h=400&amp;s=1</t>
+  </si>
+  <si>
+    <t>60. Deluxe Tours Egypt</t>
+  </si>
+  <si>
+    <t>Marhaban( Hello in Arabic ) For most people Egypt is a dream destination and had remained on most traveller's to do list. We at Deluxe Tours Egypt understand this and ensure your trip is worth your…</t>
+  </si>
+  <si>
+    <t>Historical &amp; Heritage Tours • Sightseeing Tours</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/0d/75/52/2d/memorial-photo-with-my.jpg?w=500&amp;h=-1&amp;s=1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +644,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +969,870 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>